--- a/res/班级卡片数据.xlsx
+++ b/res/班级卡片数据.xlsx
@@ -1,19 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\360MoveData\Users\lenovo\Desktop\java\git一键邀请\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E49070F-35E0-452C-9579-FED2FF22F97D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" r:id="rId3" sheetId="1"/>
+    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="445">
   <si>
     <t>序号</t>
   </si>
@@ -1345,73 +1352,92 @@
   </si>
   <si>
     <t>#FFE4C4</t>
+  </si>
+  <si>
+    <t>许莫淇</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color indexed="8"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="等线"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <charset val="134"/>
       <scheme val="minor"/>
-      <strike val="false"/>
     </font>
     <font>
+      <sz val="11"/>
       <name val="等线"/>
-      <sz val="11.0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
-      <strike val="false"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="30"/>
       <name val="等线"/>
-      <sz val="11.0"/>
-      <u val="single"/>
+      <charset val="134"/>
       <scheme val="minor"/>
-      <strike val="false"/>
-      <color indexed="30"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
       <name val="等线"/>
-      <sz val="11.0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
-      <strike val="false"/>
-      <color rgb="444444"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
       <name val="微软雅黑"/>
-      <sz val="11.0"/>
-      <strike val="false"/>
-      <color rgb="444444"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
       <name val="宋体"/>
-      <sz val="11.0"/>
-      <strike val="false"/>
+      <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="9"/>
+      <color indexed="30"/>
       <name val="等线"/>
-      <sz val="9.0"/>
-      <u val="single"/>
+      <charset val="134"/>
       <scheme val="minor"/>
-      <strike val="false"/>
-      <color indexed="30"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="等线"/>
-      <sz val="9.0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
-      <strike val="false"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1419,10 +1445,10 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1430,191 +1456,464 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
     <border>
-      <bottom>
-        <color rgb="CCCCCC"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <bottom style="thin">
-        <color rgb="CCCCCC"/>
-      </bottom>
-    </border>
-    <border>
-      <top>
-        <color rgb="CCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CCCCCC"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="CCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CCCCCC"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color rgb="CCCCCC"/>
-      </left>
-      <top style="thin">
-        <color rgb="CCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CCCCCC"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="CCCCCC"/>
+        <color rgb="FFCCCCCC"/>
       </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
       <top style="thin">
-        <color rgb="CCCCCC"/>
+        <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="thin">
-        <color rgb="CCCCCC"/>
+        <color rgb="FFCCCCCC"/>
       </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CCCCCC"/>
-      </left>
-      <right>
-        <color rgb="CCCCCC"/>
-      </right>
-      <top style="thin">
-        <color rgb="CCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CCCCCC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CCCCCC"/>
-      </left>
-      <right style="thin">
-        <color rgb="CCCCCC"/>
-      </right>
-      <top style="thin">
-        <color rgb="CCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CCCCCC"/>
-      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="false"/>
+  <cellXfs count="28">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment horizontal="left" vertical="center" wrapText="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment horizontal="left" vertical="center" wrapText="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment horizontal="left" vertical="center" wrapText="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment horizontal="left" vertical="center" wrapText="false"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="false"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="false"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment horizontal="left" vertical="center" wrapText="false"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O200"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.5"/>
-    <col min="2" max="2" width="9.0"/>
-    <col min="3" max="3" width="20.5"/>
-    <col min="4" max="4" width="12.5"/>
-    <col min="5" max="5" width="10.833333333333334"/>
-    <col min="6" max="6" width="10.833333333333334"/>
-    <col min="7" max="7" width="10.833333333333334"/>
-    <col min="8" max="8" width="13.0"/>
-    <col min="9" max="9" width="12.333333333333334"/>
-    <col min="10" max="10" width="21.666666666666668"/>
-    <col min="11" max="11" width="67.66666666666667"/>
-    <col min="12" max="12" width="38.666666666666664"/>
-    <col min="13" max="13" width="21.166666666666668"/>
-    <col min="14" max="14" width="29.5"/>
-    <col min="15" max="15" width="21.0"/>
+    <col min="1" max="1" width="7.453125"/>
+    <col min="2" max="2" width="9"/>
+    <col min="3" max="3" width="20.453125"/>
+    <col min="4" max="4" width="12.453125"/>
+    <col min="5" max="7" width="10.81640625"/>
+    <col min="8" max="8" width="13"/>
+    <col min="9" max="9" width="12.36328125"/>
+    <col min="10" max="10" width="21.6328125"/>
+    <col min="11" max="11" width="67.6328125"/>
+    <col min="12" max="12" width="38.6328125"/>
+    <col min="13" max="13" width="21.1796875"/>
+    <col min="14" max="14" width="29.453125"/>
+    <col min="15" max="15" width="21"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.0" customHeight="true">
+    <row r="1" spans="1:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1661,1951 +1960,1957 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="25">
+        <v>0</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>444</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="20" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="8" t="n">
-        <v>1.4752191369E10</v>
-      </c>
-      <c r="I2" s="8" t="n">
-        <v>1.244353765E9</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="8" t="n">
-        <v>1.9825088733E10</v>
-      </c>
-      <c r="I3" s="8" t="n">
-        <v>3.149991705E9</v>
+      <c r="H3" s="8">
+        <v>14752191369</v>
+      </c>
+      <c r="I3" s="8">
+        <v>1244353765</v>
       </c>
       <c r="J3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="8">
+        <v>19825088733</v>
+      </c>
+      <c r="I4" s="8">
+        <v>3149991705</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L4" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O4" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="5" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="B4" s="7" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C5" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="8" t="n">
-        <v>1.9850099791E10</v>
-      </c>
-      <c r="I4" s="8" t="n">
-        <v>2.313673906E9</v>
-      </c>
-      <c r="J4" s="6" t="s">
+      <c r="H5" s="8">
+        <v>19850099791</v>
+      </c>
+      <c r="I5" s="8">
+        <v>2313673906</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K5" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L5" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M5" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N5" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O5" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="5" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="6" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C6" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="5" t="n">
-        <v>1.8851137516E10</v>
-      </c>
-      <c r="I5" s="8" t="n">
-        <v>2.816540069E9</v>
-      </c>
-      <c r="J5" s="6" t="s">
+      <c r="H6" s="5">
+        <v>18851137516</v>
+      </c>
+      <c r="I6" s="8">
+        <v>2816540069</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K6" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L6" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M6" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="N6" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="O6" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="5" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="B6" s="6" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C7" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F7" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="5" t="n">
-        <v>1.5152231582E10</v>
-      </c>
-      <c r="I6" s="8" t="n">
-        <v>2.731964526E9</v>
-      </c>
-      <c r="J6" s="6" t="s">
+      <c r="H7" s="5">
+        <v>15152231582</v>
+      </c>
+      <c r="I7" s="8">
+        <v>2731964526</v>
+      </c>
+      <c r="J7" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K7" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="L7" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="M7" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="N7" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="O6" s="7" t="s">
+      <c r="O7" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="5" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="B7" s="6" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C8" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E8" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F8" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G8" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="H7" s="8" t="n">
-        <v>1.7826012341E10</v>
-      </c>
-      <c r="I7" s="8" t="n">
-        <v>1.427177855E9</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="H8" s="8">
+        <v>17826012341</v>
+      </c>
+      <c r="I8" s="8">
+        <v>1427177855</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K8" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="L8" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="M8" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="N8" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="O7" s="6" t="s">
+      <c r="O8" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="5" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="B8" s="6" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C9" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E9" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F9" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G9" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="8" t="n">
-        <v>1.8851853957E10</v>
-      </c>
-      <c r="I8" s="8" t="n">
-        <v>2.298090131E9</v>
-      </c>
-      <c r="J8" s="6" t="s">
+      <c r="H9" s="8">
+        <v>18851853957</v>
+      </c>
+      <c r="I9" s="8">
+        <v>2298090131</v>
+      </c>
+      <c r="J9" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K9" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="L8" s="13" t="s">
+      <c r="L9" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="M8" s="6" t="s">
+      <c r="M9" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="N9" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="O8" s="6" t="s">
+      <c r="O9" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="5" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="B9" s="6" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C10" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D10" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E10" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F10" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="8" t="n">
-        <v>1.8851697603E10</v>
-      </c>
-      <c r="I9" s="8" t="n">
-        <v>5.99984243E8</v>
-      </c>
-      <c r="J9" s="6" t="s">
+      <c r="H10" s="8">
+        <v>18851697603</v>
+      </c>
+      <c r="I10" s="8">
+        <v>599984243</v>
+      </c>
+      <c r="J10" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K10" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="L9" s="10" t="s">
+      <c r="L10" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="M9" s="6" t="s">
+      <c r="M10" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="N9" s="6" t="s">
+      <c r="N10" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="O9" s="15" t="s">
+      <c r="O10" s="15" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="5" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="B10" s="6" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>9</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="5" t="n">
-        <v>2.501015371E9</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="C11" s="5">
+        <v>2501015371</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E11" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F11" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G11" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="H10" s="8" t="n">
-        <v>1.8851862391E10</v>
-      </c>
-      <c r="I10" s="8" t="n">
-        <v>2.501015371E9</v>
-      </c>
-      <c r="J10" s="6" t="s">
+      <c r="H11" s="8">
+        <v>18851862391</v>
+      </c>
+      <c r="I11" s="8">
+        <v>2501015371</v>
+      </c>
+      <c r="J11" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="K11" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="L10" s="10" t="s">
+      <c r="L11" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="M10" s="6" t="s">
+      <c r="M11" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="N10" s="6" t="s">
+      <c r="N11" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="O10" s="6" t="s">
+      <c r="O11" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="5" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="B11" s="6" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C12" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D12" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E12" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F12" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G12" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="H11" s="8" t="n">
-        <v>1.8851860919E10</v>
-      </c>
-      <c r="I11" s="8" t="n">
-        <v>2.64101395E9</v>
-      </c>
-      <c r="J11" s="6" t="s">
+      <c r="H12" s="8">
+        <v>18851860919</v>
+      </c>
+      <c r="I12" s="8">
+        <v>2641013950</v>
+      </c>
+      <c r="J12" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K12" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="L11" s="10" t="s">
+      <c r="L12" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="M11" s="6" t="s">
+      <c r="M12" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="N11" s="6" t="s">
+      <c r="N12" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="O11" s="6" t="s">
+      <c r="O12" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="5" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="B12" s="6" t="s">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>11</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C13" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D13" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E13" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F13" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G13" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="H12" s="8" t="n">
-        <v>1.8805167526E10</v>
-      </c>
-      <c r="I12" s="8" t="n">
-        <v>2.673327266E9</v>
-      </c>
-      <c r="J12" s="6" t="s">
+      <c r="H13" s="8">
+        <v>18805167526</v>
+      </c>
+      <c r="I13" s="8">
+        <v>2673327266</v>
+      </c>
+      <c r="J13" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="K13" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="L12" s="10" t="s">
+      <c r="L13" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="M12" s="6" t="s">
+      <c r="M13" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="N12" s="6" t="s">
+      <c r="N13" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="O12" s="6" t="s">
+      <c r="O13" s="6" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="5" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="B13" s="6" t="s">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>12</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C14" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D14" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E14" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F14" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G14" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H13" s="8" t="n">
-        <v>1.8852017973E10</v>
-      </c>
-      <c r="I13" s="8" t="n">
-        <v>1.836686674E9</v>
-      </c>
-      <c r="J13" s="6" t="s">
+      <c r="H14" s="8">
+        <v>18852017973</v>
+      </c>
+      <c r="I14" s="8">
+        <v>1836686674</v>
+      </c>
+      <c r="J14" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="K14" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="L13" s="10" t="s">
+      <c r="L14" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="M13" s="6" t="s">
+      <c r="M14" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="N13" s="6" t="s">
+      <c r="N14" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="O13" s="6" t="s">
+      <c r="O14" s="6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="5" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="B14" s="6" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>13</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C15" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D15" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E15" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F15" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G15" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="H14" s="8" t="n">
-        <v>1.77832086E10</v>
-      </c>
-      <c r="I14" s="8" t="n">
-        <v>2.320832818E9</v>
-      </c>
-      <c r="J14" s="6" t="s">
+      <c r="H15" s="8">
+        <v>17783208600</v>
+      </c>
+      <c r="I15" s="8">
+        <v>2320832818</v>
+      </c>
+      <c r="J15" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="K15" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="L14" s="10" t="s">
+      <c r="L15" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="M14" s="6" t="s">
+      <c r="M15" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="N14" s="6" t="s">
+      <c r="N15" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="O14" s="6" t="s">
+      <c r="O15" s="6" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="5" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="B15" s="6" t="s">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>14</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C16" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D16" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E16" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F16" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G16" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="H15" s="8" t="n">
-        <v>1.8452555712E10</v>
-      </c>
-      <c r="I15" s="8" t="n">
-        <v>8.46272692E8</v>
-      </c>
-      <c r="J15" s="6" t="s">
+      <c r="H16" s="8">
+        <v>18452555712</v>
+      </c>
+      <c r="I16" s="8">
+        <v>846272692</v>
+      </c>
+      <c r="J16" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="K15" s="9" t="s">
+      <c r="K16" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="L15" s="10" t="s">
+      <c r="L16" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="M15" s="6" t="s">
+      <c r="M16" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="N15" s="6" t="s">
+      <c r="N16" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="O15" s="6" t="s">
+      <c r="O16" s="6" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="5" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="B16" s="6" t="s">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>15</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C17" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E17" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F17" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G17" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="H16" s="8" t="n">
-        <v>1.7625835438E10</v>
-      </c>
-      <c r="I16" s="8" t="n">
-        <v>1.294898797E9</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="H17" s="8">
+        <v>17625835438</v>
+      </c>
+      <c r="I17" s="8">
+        <v>1294898797</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K16" s="9" t="s">
+      <c r="K17" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="L16" s="10" t="s">
+      <c r="L17" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="M16" s="6" t="s">
+      <c r="M17" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="N16" s="6" t="s">
+      <c r="N17" s="6" t="s">
         <v>177</v>
-      </c>
-      <c r="O16" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="5" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="H17" s="8" t="n">
-        <v>1.8094247962E10</v>
-      </c>
-      <c r="I17" s="8" t="n">
-        <v>1.987153442E9</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="L17" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="N17" s="6" t="s">
-        <v>188</v>
       </c>
       <c r="O17" s="6" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="5" t="n">
-        <v>17.0</v>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="H18" s="8">
+        <v>18094247962</v>
+      </c>
+      <c r="I18" s="8">
+        <v>1987153442</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>17</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C19" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D19" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E19" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F19" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G19" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="H18" s="8" t="n">
-        <v>1.3457513856E10</v>
-      </c>
-      <c r="I18" s="8" t="n">
-        <v>2.296887348E9</v>
-      </c>
-      <c r="J18" s="6" t="s">
+      <c r="H19" s="8">
+        <v>13457513856</v>
+      </c>
+      <c r="I19" s="8">
+        <v>2296887348</v>
+      </c>
+      <c r="J19" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="K18" s="9" t="s">
+      <c r="K19" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="L18" s="10" t="s">
+      <c r="L19" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="M18" s="6" t="s">
+      <c r="M19" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="N18" s="6" t="s">
+      <c r="N19" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="O18" s="6" t="s">
+      <c r="O19" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="5" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="B19" s="6" t="s">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>18</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C20" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D20" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E20" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F20" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G20" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="H19" s="8" t="n">
-        <v>1.8851860805E10</v>
-      </c>
-      <c r="I19" s="8" t="n">
-        <v>1.019916061E9</v>
-      </c>
-      <c r="J19" s="6" t="s">
+      <c r="H20" s="8">
+        <v>18851860805</v>
+      </c>
+      <c r="I20" s="8">
+        <v>1019916061</v>
+      </c>
+      <c r="J20" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="K19" s="9" t="s">
+      <c r="K20" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="L19" s="10" t="s">
+      <c r="L20" s="10" t="s">
         <v>206</v>
-      </c>
-      <c r="M19" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="N19" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="O19" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="5" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="H20" s="8" t="n">
-        <v>1.8851856989E10</v>
-      </c>
-      <c r="I20" s="8" t="n">
-        <v>7.98763046E8</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="L20" s="10" t="s">
-        <v>217</v>
       </c>
       <c r="M20" s="6" t="s">
         <v>207</v>
       </c>
       <c r="N20" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>19</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="H21" s="8">
+        <v>18851856989</v>
+      </c>
+      <c r="I21" s="8">
+        <v>798763046</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="N21" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="O20" s="6" t="s">
+      <c r="O21" s="6" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="5" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="B21" s="6" t="s">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>20</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C22" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D22" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E22" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F22" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G22" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="H21" s="8" t="n">
-        <v>1.8851999738E10</v>
-      </c>
-      <c r="I21" s="8" t="n">
-        <v>1.224178565E9</v>
-      </c>
-      <c r="J21" s="6" t="s">
+      <c r="H22" s="8">
+        <v>18851999738</v>
+      </c>
+      <c r="I22" s="8">
+        <v>1224178565</v>
+      </c>
+      <c r="J22" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="K21" s="9" t="s">
+      <c r="K22" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="L21" s="10" t="s">
+      <c r="L22" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="M21" s="6" t="s">
+      <c r="M22" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="N21" s="6" t="s">
+      <c r="N22" s="6" t="s">
         <v>230</v>
-      </c>
-      <c r="O21" s="6" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="5" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="H22" s="8" t="n">
-        <v>1.809424692E10</v>
-      </c>
-      <c r="I22" s="8" t="n">
-        <v>3.51234359E8</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="K22" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="L22" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="M22" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="N22" s="6" t="s">
-        <v>240</v>
       </c>
       <c r="O22" s="6" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="5" t="n">
-        <v>22.0</v>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>21</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="H23" s="8">
+        <v>18094246920</v>
+      </c>
+      <c r="I23" s="8">
+        <v>351234359</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>22</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C24" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D24" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E24" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F24" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G24" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="H23" s="8" t="n">
-        <v>1.5025762624E10</v>
-      </c>
-      <c r="I23" s="8" t="n">
-        <v>2.414704205E9</v>
-      </c>
-      <c r="J23" s="6" t="s">
+      <c r="H24" s="8">
+        <v>15025762624</v>
+      </c>
+      <c r="I24" s="8">
+        <v>2414704205</v>
+      </c>
+      <c r="J24" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="K23" s="9" t="s">
+      <c r="K24" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="L23" s="10" t="s">
+      <c r="L24" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="M23" s="6" t="s">
+      <c r="M24" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="N23" s="6" t="s">
+      <c r="N24" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="O23" s="6" t="s">
+      <c r="O24" s="6" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="5" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="B24" s="6" t="s">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <v>23</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C25" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D25" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E25" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F25" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G25" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="H24" s="8" t="n">
-        <v>1.8278743357E10</v>
-      </c>
-      <c r="I24" s="8" t="n">
-        <v>2.368046759E9</v>
-      </c>
-      <c r="J24" s="6" t="s">
+      <c r="H25" s="8">
+        <v>18278743357</v>
+      </c>
+      <c r="I25" s="8">
+        <v>2368046759</v>
+      </c>
+      <c r="J25" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="K24" s="9" t="s">
+      <c r="K25" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="L24" s="10" t="s">
+      <c r="L25" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="M24" s="6" t="s">
+      <c r="M25" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="N24" s="6" t="s">
+      <c r="N25" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="O24" s="6" t="s">
+      <c r="O25" s="6" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="5" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="B25" s="6" t="s">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>24</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="C25" s="16" t="n">
-        <v>1.802343117E9</v>
-      </c>
-      <c r="D25" s="6" t="s">
+      <c r="C26" s="16">
+        <v>1802343117</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E26" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F26" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G26" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="H25" s="8" t="n">
-        <v>1.8805167507E10</v>
-      </c>
-      <c r="I25" s="8" t="n">
-        <v>1.255965856E9</v>
-      </c>
-      <c r="J25" s="6" t="s">
+      <c r="H26" s="8">
+        <v>18805167507</v>
+      </c>
+      <c r="I26" s="8">
+        <v>1255965856</v>
+      </c>
+      <c r="J26" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="K25" s="9" t="s">
+      <c r="K26" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="L25" s="10" t="s">
+      <c r="L26" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="M25" s="6" t="s">
+      <c r="M26" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="N25" s="6" t="s">
+      <c r="N26" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="O25" s="6" t="s">
+      <c r="O26" s="6" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="5" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="B26" s="6" t="s">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>25</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="C26" s="5" t="n">
-        <v>1.914866205E9</v>
-      </c>
-      <c r="D26" s="6" t="s">
+      <c r="C27" s="5">
+        <v>1914866205</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E27" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F27" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G27" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="H26" s="8" t="n">
-        <v>1.8851855106E10</v>
-      </c>
-      <c r="I26" s="8" t="n">
-        <v>1.914866205E9</v>
-      </c>
-      <c r="J26" s="6" t="s">
+      <c r="H27" s="8">
+        <v>18851855106</v>
+      </c>
+      <c r="I27" s="8">
+        <v>1914866205</v>
+      </c>
+      <c r="J27" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="K26" s="9" t="s">
+      <c r="K27" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="L26" s="10" t="s">
+      <c r="L27" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="M26" s="6" t="s">
+      <c r="M27" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="N26" s="6" t="s">
+      <c r="N27" s="6" t="s">
         <v>275</v>
-      </c>
-      <c r="O26" s="6" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="5" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="F27" s="8" t="n">
-        <v>1.9991117E7</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="H27" s="8" t="n">
-        <v>1.9850099797E10</v>
-      </c>
-      <c r="I27" s="8" t="n">
-        <v>1.559022933E9</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="K27" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="L27" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="M27" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="N27" s="6" t="s">
-        <v>292</v>
       </c>
       <c r="O27" s="6" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="5" t="n">
-        <v>27.0</v>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <v>26</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="F28" s="8">
+        <v>19991117</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="H28" s="8">
+        <v>19850099797</v>
+      </c>
+      <c r="I28" s="8">
+        <v>1559022933</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="L28" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="O28" s="6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <v>27</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C29" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D29" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E29" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F29" s="6" t="s">
         <v>297</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="H28" s="8" t="n">
-        <v>1.3739173619E10</v>
-      </c>
-      <c r="I28" s="8" t="n">
-        <v>1.293340422E9</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="K28" s="18" t="s">
-        <v>299</v>
-      </c>
-      <c r="L28" s="19" t="s">
-        <v>300</v>
-      </c>
-      <c r="M28" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="N28" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="O28" s="6" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="5" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="C29" s="5" t="n">
-        <v>1.802343228E9</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>305</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="H29" s="8" t="n">
-        <v>1.8851699003E10</v>
-      </c>
-      <c r="I29" s="8" t="n">
-        <v>2.631315464E9</v>
+      <c r="H29" s="8">
+        <v>13739173619</v>
+      </c>
+      <c r="I29" s="8">
+        <v>1293340422</v>
       </c>
       <c r="J29" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="K29" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="L29" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="O29" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
+        <v>28</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="C30" s="5">
+        <v>1802343228</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H30" s="8">
+        <v>18851699003</v>
+      </c>
+      <c r="I30" s="8">
+        <v>2631315464</v>
+      </c>
+      <c r="J30" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="K29" s="9" t="s">
+      <c r="K30" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="L29" s="10" t="s">
+      <c r="L30" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="M29" s="6" t="s">
+      <c r="M30" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="N29" s="6" t="s">
+      <c r="N30" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="O29" s="6" t="s">
+      <c r="O30" s="6" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="5" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="B30" s="6" t="s">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
+        <v>29</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C31" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D31" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E31" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F31" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="H30" s="8" t="n">
-        <v>1.5370000688E10</v>
-      </c>
-      <c r="I30" s="8" t="n">
-        <v>2.641617428E9</v>
-      </c>
-      <c r="J30" s="6" t="s">
+      <c r="H31" s="8">
+        <v>15370000688</v>
+      </c>
+      <c r="I31" s="8">
+        <v>2641617428</v>
+      </c>
+      <c r="J31" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="K30" s="9" t="s">
+      <c r="K31" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="L30" s="10" t="s">
+      <c r="L31" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="M30" s="6" t="s">
+      <c r="M31" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="N30" s="6" t="s">
+      <c r="N31" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="O30" s="6" t="s">
+      <c r="O31" s="6" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="5" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="B31" s="6" t="s">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="5">
+        <v>30</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C32" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D32" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E32" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F32" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G32" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="H31" s="8" t="n">
-        <v>1.9850099292E10</v>
-      </c>
-      <c r="I31" s="8" t="n">
-        <v>1.299088269E9</v>
-      </c>
-      <c r="J31" s="6" t="s">
+      <c r="H32" s="8">
+        <v>19850099292</v>
+      </c>
+      <c r="I32" s="8">
+        <v>1299088269</v>
+      </c>
+      <c r="J32" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="K31" s="9" t="s">
+      <c r="K32" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="L31" s="10" t="s">
+      <c r="L32" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="M31" s="6" t="s">
+      <c r="M32" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="N31" s="6" t="s">
+      <c r="N32" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="O31" s="6" t="s">
+      <c r="O32" s="6" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="5" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="B32" s="6" t="s">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
+        <v>31</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C33" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D33" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E33" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F33" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="G33" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="H32" s="8" t="n">
-        <v>1.8805162578E10</v>
-      </c>
-      <c r="I32" s="8" t="n">
-        <v>1.162608075E9</v>
-      </c>
-      <c r="J32" s="6" t="s">
+      <c r="H33" s="8">
+        <v>18805162578</v>
+      </c>
+      <c r="I33" s="8">
+        <v>1162608075</v>
+      </c>
+      <c r="J33" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="K32" s="9" t="s">
+      <c r="K33" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="L32" s="10" t="s">
+      <c r="L33" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="M32" s="6" t="s">
+      <c r="M33" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="N32" s="6" t="s">
+      <c r="N33" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="O32" s="6" t="s">
+      <c r="O33" s="6" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="5" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="B33" s="6" t="s">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34" s="5">
+        <v>32</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C34" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D34" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E34" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F34" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="G34" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="H33" s="8" t="n">
-        <v>1.8851998839E10</v>
-      </c>
-      <c r="I33" s="8" t="n">
-        <v>1.091886414E9</v>
-      </c>
-      <c r="J33" s="6" t="s">
+      <c r="H34" s="8">
+        <v>18851998839</v>
+      </c>
+      <c r="I34" s="8">
+        <v>1091886414</v>
+      </c>
+      <c r="J34" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="K33" s="18" t="s">
+      <c r="K34" s="18" t="s">
         <v>348</v>
       </c>
-      <c r="L33" s="10" t="s">
+      <c r="L34" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="M33" s="6" t="s">
+      <c r="M34" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="N33" s="6" t="s">
+      <c r="N34" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="O33" s="7" t="s">
+      <c r="O34" s="7" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="5" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="B34" s="6" t="s">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" s="5">
+        <v>33</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C35" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D35" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E35" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="F35" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="G35" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="H34" s="8" t="n">
-        <v>1.885169751E10</v>
-      </c>
-      <c r="I34" s="8" t="n">
-        <v>1.945256212E9</v>
-      </c>
-      <c r="J34" s="6" t="s">
+      <c r="H35" s="8">
+        <v>18851697510</v>
+      </c>
+      <c r="I35" s="8">
+        <v>1945256212</v>
+      </c>
+      <c r="J35" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="K34" s="9" t="s">
+      <c r="K35" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="L34" s="10" t="s">
+      <c r="L35" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="M34" s="6" t="s">
+      <c r="M35" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="N34" s="6" t="s">
+      <c r="N35" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="O34" s="6" t="s">
+      <c r="O35" s="6" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="5" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="B35" s="6" t="s">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" s="5">
+        <v>34</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="C35" s="5" t="n">
-        <v>4.8038411E7</v>
-      </c>
-      <c r="D35" s="6" t="s">
+      <c r="C36" s="5">
+        <v>48038411</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E36" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="F36" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="G36" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="H35" s="8" t="n">
-        <v>1.8851853897E10</v>
-      </c>
-      <c r="I35" s="8" t="n">
-        <v>4.8038411E7</v>
-      </c>
-      <c r="J35" s="6" t="s">
+      <c r="H36" s="8">
+        <v>18851853897</v>
+      </c>
+      <c r="I36" s="8">
+        <v>48038411</v>
+      </c>
+      <c r="J36" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="K35" s="9" t="s">
+      <c r="K36" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="L35" s="10" t="s">
+      <c r="L36" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="M35" s="6" t="s">
+      <c r="M36" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="N35" s="6" t="s">
+      <c r="N36" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="O35" s="6" t="s">
+      <c r="O36" s="6" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="5" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="B36" s="6" t="s">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37" s="5">
+        <v>35</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C37" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D37" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E37" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="F37" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="G37" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="H36" s="8" t="n">
-        <v>1.5178114095E10</v>
-      </c>
-      <c r="I36" s="8" t="n">
-        <v>3.597107837E9</v>
-      </c>
-      <c r="J36" s="6" t="s">
+      <c r="H37" s="8">
+        <v>15178114095</v>
+      </c>
+      <c r="I37" s="8">
+        <v>3597107837</v>
+      </c>
+      <c r="J37" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="K36" s="9" t="s">
+      <c r="K37" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="L36" s="10" t="s">
+      <c r="L37" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="M36" s="6" t="s">
+      <c r="M37" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="N36" s="6" t="s">
+      <c r="N37" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="O36" s="6" t="s">
+      <c r="O37" s="6" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="5" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="B37" s="6" t="s">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" s="5">
+        <v>36</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C38" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D38" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E38" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F38" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="G38" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="H37" s="8" t="n">
-        <v>1.8851861839E10</v>
-      </c>
-      <c r="I37" s="8" t="n">
-        <v>1.950016253E9</v>
-      </c>
-      <c r="J37" s="6" t="s">
+      <c r="H38" s="8">
+        <v>18851861839</v>
+      </c>
+      <c r="I38" s="8">
+        <v>1950016253</v>
+      </c>
+      <c r="J38" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="K37" s="9" t="s">
+      <c r="K38" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="L37" s="10" t="s">
+      <c r="L38" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="M37" s="6" t="s">
+      <c r="M38" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="N37" s="6" t="s">
+      <c r="N38" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="O37" s="6" t="s">
+      <c r="O38" s="6" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="5" t="n">
-        <v>37.0</v>
-      </c>
-      <c r="B38" s="6" t="s">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39" s="5">
+        <v>37</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C39" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D39" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E39" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="F39" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="G38" s="6" t="s">
+      <c r="G39" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="H38" s="8" t="n">
-        <v>1.8851697931E10</v>
-      </c>
-      <c r="I38" s="8" t="n">
-        <v>1.273163614E9</v>
-      </c>
-      <c r="J38" s="6" t="s">
+      <c r="H39" s="8">
+        <v>18851697931</v>
+      </c>
+      <c r="I39" s="8">
+        <v>1273163614</v>
+      </c>
+      <c r="J39" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="K38" s="9" t="s">
+      <c r="K39" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="L38" s="13" t="s">
+      <c r="L39" s="13" t="s">
         <v>398</v>
       </c>
-      <c r="M38" s="6" t="s">
+      <c r="M39" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="N38" s="6" t="s">
+      <c r="N39" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="O38" s="6" t="s">
+      <c r="O39" s="6" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="5" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="B39" s="6" t="s">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40" s="5">
+        <v>38</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C40" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D40" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E40" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="F40" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="G39" s="6" t="s">
+      <c r="G40" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="H39" s="8" t="n">
-        <v>1.8932386185E10</v>
-      </c>
-      <c r="I39" s="8" t="n">
-        <v>1.797262364E9</v>
-      </c>
-      <c r="J39" s="6" t="s">
+      <c r="H40" s="8">
+        <v>18932386185</v>
+      </c>
+      <c r="I40" s="8">
+        <v>1797262364</v>
+      </c>
+      <c r="J40" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="K39" s="9" t="s">
+      <c r="K40" s="9" t="s">
         <v>408</v>
       </c>
-      <c r="L39" s="10" t="s">
+      <c r="L40" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="M39" s="6" t="s">
+      <c r="M40" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="N39" s="6" t="s">
+      <c r="N40" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="O39" s="6" t="s">
+      <c r="O40" s="6" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="5" t="n">
-        <v>39.0</v>
-      </c>
-      <c r="B40" s="6" t="s">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A41" s="5">
+        <v>39</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C41" s="12" t="s">
         <v>414</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D41" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E41" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="F41" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="G40" s="6" t="s">
+      <c r="G41" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="H40" s="8" t="n">
-        <v>1.3013947768E10</v>
-      </c>
-      <c r="I40" s="8" t="n">
-        <v>2.316860587E9</v>
-      </c>
-      <c r="J40" s="6" t="s">
+      <c r="H41" s="8">
+        <v>13013947768</v>
+      </c>
+      <c r="I41" s="8">
+        <v>2316860587</v>
+      </c>
+      <c r="J41" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="K40" s="9" t="s">
+      <c r="K41" s="9" t="s">
         <v>418</v>
       </c>
-      <c r="L40" s="10" t="s">
+      <c r="L41" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="M40" s="6" t="s">
+      <c r="M41" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="N40" s="6" t="s">
+      <c r="N41" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="O40" s="20" t="s">
+      <c r="O41" s="20" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="5" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="B41" s="6" t="s">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42" s="5">
+        <v>40</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C42" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D42" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E42" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="F42" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="G41" s="6" t="s">
+      <c r="G42" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="H41" s="8" t="n">
-        <v>1.6651100323E10</v>
-      </c>
-      <c r="I41" s="8" t="n">
-        <v>1.412666584E9</v>
-      </c>
-      <c r="J41" s="6" t="s">
+      <c r="H42" s="8">
+        <v>16651100323</v>
+      </c>
+      <c r="I42" s="8">
+        <v>1412666584</v>
+      </c>
+      <c r="J42" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="K41" s="9" t="s">
+      <c r="K42" s="9" t="s">
         <v>428</v>
       </c>
-      <c r="L41" s="10" t="s">
+      <c r="L42" s="10" t="s">
         <v>429</v>
       </c>
-      <c r="M41" s="6" t="s">
+      <c r="M42" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="N41" s="6" t="s">
+      <c r="N42" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="O41" s="6" t="s">
+      <c r="O42" s="6" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="5" t="n">
-        <v>41.0</v>
-      </c>
-      <c r="B42" s="6" t="s">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43" s="5">
+        <v>41</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C43" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D43" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E43" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="F43" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="G42" s="6" t="s">
+      <c r="G43" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="H42" s="8" t="n">
-        <v>1.8851862081E10</v>
-      </c>
-      <c r="I42" s="8" t="n">
-        <v>5.10040515E8</v>
-      </c>
-      <c r="J42" s="6" t="s">
+      <c r="H43" s="8">
+        <v>18851862081</v>
+      </c>
+      <c r="I43" s="8">
+        <v>510040515</v>
+      </c>
+      <c r="J43" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="K42" s="9" t="s">
+      <c r="K43" s="9" t="s">
         <v>439</v>
       </c>
-      <c r="L42" s="10" t="s">
+      <c r="L43" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="M42" s="6" t="s">
+      <c r="M43" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="N42" s="6" t="s">
+      <c r="N43" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="O42" s="6" t="s">
+      <c r="O43" s="6" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="21"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="24"/>
-      <c r="M43" s="23"/>
-      <c r="N43" s="23"/>
-      <c r="O43" s="23"/>
-    </row>
-    <row r="44">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="21"/>
       <c r="B44" s="2"/>
       <c r="C44" s="22"/>
@@ -3622,7 +3927,7 @@
       <c r="N44" s="23"/>
       <c r="O44" s="23"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="21"/>
       <c r="B45" s="2"/>
       <c r="C45" s="22"/>
@@ -3639,7 +3944,7 @@
       <c r="N45" s="23"/>
       <c r="O45" s="23"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="21"/>
       <c r="B46" s="2"/>
       <c r="C46" s="22"/>
@@ -3656,7 +3961,7 @@
       <c r="N46" s="23"/>
       <c r="O46" s="23"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="21"/>
       <c r="B47" s="2"/>
       <c r="C47" s="22"/>
@@ -3673,7 +3978,7 @@
       <c r="N47" s="23"/>
       <c r="O47" s="23"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="21"/>
       <c r="B48" s="2"/>
       <c r="C48" s="22"/>
@@ -3690,7 +3995,7 @@
       <c r="N48" s="23"/>
       <c r="O48" s="23"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="21"/>
       <c r="B49" s="2"/>
       <c r="C49" s="22"/>
@@ -3707,7 +4012,7 @@
       <c r="N49" s="23"/>
       <c r="O49" s="23"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="21"/>
       <c r="B50" s="2"/>
       <c r="C50" s="22"/>
@@ -3724,7 +4029,7 @@
       <c r="N50" s="23"/>
       <c r="O50" s="23"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="21"/>
       <c r="B51" s="2"/>
       <c r="C51" s="22"/>
@@ -3741,7 +4046,7 @@
       <c r="N51" s="23"/>
       <c r="O51" s="23"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="21"/>
       <c r="B52" s="2"/>
       <c r="C52" s="22"/>
@@ -3758,7 +4063,7 @@
       <c r="N52" s="23"/>
       <c r="O52" s="23"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="21"/>
       <c r="B53" s="2"/>
       <c r="C53" s="22"/>
@@ -3775,7 +4080,7 @@
       <c r="N53" s="23"/>
       <c r="O53" s="23"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="21"/>
       <c r="B54" s="2"/>
       <c r="C54" s="22"/>
@@ -3792,7 +4097,7 @@
       <c r="N54" s="23"/>
       <c r="O54" s="23"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="21"/>
       <c r="B55" s="2"/>
       <c r="C55" s="22"/>
@@ -3809,7 +4114,7 @@
       <c r="N55" s="23"/>
       <c r="O55" s="23"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="21"/>
       <c r="B56" s="2"/>
       <c r="C56" s="22"/>
@@ -3826,7 +4131,7 @@
       <c r="N56" s="23"/>
       <c r="O56" s="23"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="21"/>
       <c r="B57" s="2"/>
       <c r="C57" s="22"/>
@@ -3843,7 +4148,7 @@
       <c r="N57" s="23"/>
       <c r="O57" s="23"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="21"/>
       <c r="B58" s="2"/>
       <c r="C58" s="22"/>
@@ -3860,7 +4165,7 @@
       <c r="N58" s="23"/>
       <c r="O58" s="23"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="21"/>
       <c r="B59" s="2"/>
       <c r="C59" s="22"/>
@@ -3877,7 +4182,7 @@
       <c r="N59" s="23"/>
       <c r="O59" s="23"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" s="21"/>
       <c r="B60" s="2"/>
       <c r="C60" s="22"/>
@@ -3894,7 +4199,7 @@
       <c r="N60" s="23"/>
       <c r="O60" s="23"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" s="21"/>
       <c r="B61" s="2"/>
       <c r="C61" s="22"/>
@@ -3911,7 +4216,7 @@
       <c r="N61" s="23"/>
       <c r="O61" s="23"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="21"/>
       <c r="B62" s="2"/>
       <c r="C62" s="22"/>
@@ -3928,7 +4233,7 @@
       <c r="N62" s="23"/>
       <c r="O62" s="23"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="21"/>
       <c r="B63" s="2"/>
       <c r="C63" s="22"/>
@@ -3945,7 +4250,7 @@
       <c r="N63" s="23"/>
       <c r="O63" s="23"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="21"/>
       <c r="B64" s="2"/>
       <c r="C64" s="22"/>
@@ -3962,7 +4267,7 @@
       <c r="N64" s="23"/>
       <c r="O64" s="23"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="21"/>
       <c r="B65" s="2"/>
       <c r="C65" s="22"/>
@@ -3979,7 +4284,7 @@
       <c r="N65" s="23"/>
       <c r="O65" s="23"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="21"/>
       <c r="B66" s="2"/>
       <c r="C66" s="22"/>
@@ -3996,7 +4301,7 @@
       <c r="N66" s="23"/>
       <c r="O66" s="23"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="21"/>
       <c r="B67" s="2"/>
       <c r="C67" s="22"/>
@@ -4013,7 +4318,7 @@
       <c r="N67" s="23"/>
       <c r="O67" s="23"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="21"/>
       <c r="B68" s="2"/>
       <c r="C68" s="22"/>
@@ -4030,7 +4335,7 @@
       <c r="N68" s="23"/>
       <c r="O68" s="23"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="21"/>
       <c r="B69" s="2"/>
       <c r="C69" s="22"/>
@@ -4047,7 +4352,7 @@
       <c r="N69" s="23"/>
       <c r="O69" s="23"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="21"/>
       <c r="B70" s="2"/>
       <c r="C70" s="22"/>
@@ -4064,7 +4369,7 @@
       <c r="N70" s="23"/>
       <c r="O70" s="23"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="21"/>
       <c r="B71" s="2"/>
       <c r="C71" s="22"/>
@@ -4081,7 +4386,7 @@
       <c r="N71" s="23"/>
       <c r="O71" s="23"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="21"/>
       <c r="B72" s="2"/>
       <c r="C72" s="22"/>
@@ -4098,7 +4403,7 @@
       <c r="N72" s="23"/>
       <c r="O72" s="23"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="21"/>
       <c r="B73" s="2"/>
       <c r="C73" s="22"/>
@@ -4115,7 +4420,7 @@
       <c r="N73" s="23"/>
       <c r="O73" s="23"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="21"/>
       <c r="B74" s="2"/>
       <c r="C74" s="22"/>
@@ -4132,7 +4437,7 @@
       <c r="N74" s="23"/>
       <c r="O74" s="23"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="21"/>
       <c r="B75" s="2"/>
       <c r="C75" s="22"/>
@@ -4149,7 +4454,7 @@
       <c r="N75" s="23"/>
       <c r="O75" s="23"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="21"/>
       <c r="B76" s="2"/>
       <c r="C76" s="22"/>
@@ -4166,7 +4471,7 @@
       <c r="N76" s="23"/>
       <c r="O76" s="23"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="21"/>
       <c r="B77" s="2"/>
       <c r="C77" s="22"/>
@@ -4183,7 +4488,7 @@
       <c r="N77" s="23"/>
       <c r="O77" s="23"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="21"/>
       <c r="B78" s="2"/>
       <c r="C78" s="22"/>
@@ -4200,7 +4505,7 @@
       <c r="N78" s="23"/>
       <c r="O78" s="23"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="21"/>
       <c r="B79" s="2"/>
       <c r="C79" s="22"/>
@@ -4217,7 +4522,7 @@
       <c r="N79" s="23"/>
       <c r="O79" s="23"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="21"/>
       <c r="B80" s="2"/>
       <c r="C80" s="22"/>
@@ -4234,7 +4539,7 @@
       <c r="N80" s="23"/>
       <c r="O80" s="23"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" s="21"/>
       <c r="B81" s="2"/>
       <c r="C81" s="22"/>
@@ -4251,7 +4556,7 @@
       <c r="N81" s="23"/>
       <c r="O81" s="23"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" s="21"/>
       <c r="B82" s="2"/>
       <c r="C82" s="22"/>
@@ -4268,7 +4573,7 @@
       <c r="N82" s="23"/>
       <c r="O82" s="23"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" s="21"/>
       <c r="B83" s="2"/>
       <c r="C83" s="22"/>
@@ -4285,7 +4590,7 @@
       <c r="N83" s="23"/>
       <c r="O83" s="23"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" s="21"/>
       <c r="B84" s="2"/>
       <c r="C84" s="22"/>
@@ -4302,7 +4607,7 @@
       <c r="N84" s="23"/>
       <c r="O84" s="23"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="21"/>
       <c r="B85" s="2"/>
       <c r="C85" s="22"/>
@@ -4319,7 +4624,7 @@
       <c r="N85" s="23"/>
       <c r="O85" s="23"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="21"/>
       <c r="B86" s="2"/>
       <c r="C86" s="22"/>
@@ -4336,7 +4641,7 @@
       <c r="N86" s="23"/>
       <c r="O86" s="23"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" s="21"/>
       <c r="B87" s="2"/>
       <c r="C87" s="22"/>
@@ -4353,7 +4658,7 @@
       <c r="N87" s="23"/>
       <c r="O87" s="23"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" s="21"/>
       <c r="B88" s="2"/>
       <c r="C88" s="22"/>
@@ -4370,7 +4675,7 @@
       <c r="N88" s="23"/>
       <c r="O88" s="23"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" s="21"/>
       <c r="B89" s="2"/>
       <c r="C89" s="22"/>
@@ -4387,7 +4692,7 @@
       <c r="N89" s="23"/>
       <c r="O89" s="23"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" s="21"/>
       <c r="B90" s="2"/>
       <c r="C90" s="22"/>
@@ -4404,7 +4709,7 @@
       <c r="N90" s="23"/>
       <c r="O90" s="23"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" s="21"/>
       <c r="B91" s="2"/>
       <c r="C91" s="22"/>
@@ -4421,7 +4726,7 @@
       <c r="N91" s="23"/>
       <c r="O91" s="23"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" s="21"/>
       <c r="B92" s="2"/>
       <c r="C92" s="22"/>
@@ -4438,7 +4743,7 @@
       <c r="N92" s="23"/>
       <c r="O92" s="23"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" s="21"/>
       <c r="B93" s="2"/>
       <c r="C93" s="22"/>
@@ -4455,7 +4760,7 @@
       <c r="N93" s="23"/>
       <c r="O93" s="23"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" s="21"/>
       <c r="B94" s="2"/>
       <c r="C94" s="22"/>
@@ -4472,7 +4777,7 @@
       <c r="N94" s="23"/>
       <c r="O94" s="23"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" s="21"/>
       <c r="B95" s="2"/>
       <c r="C95" s="22"/>
@@ -4489,7 +4794,7 @@
       <c r="N95" s="23"/>
       <c r="O95" s="23"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" s="21"/>
       <c r="B96" s="2"/>
       <c r="C96" s="22"/>
@@ -4506,7 +4811,7 @@
       <c r="N96" s="23"/>
       <c r="O96" s="23"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" s="21"/>
       <c r="B97" s="2"/>
       <c r="C97" s="22"/>
@@ -4523,7 +4828,7 @@
       <c r="N97" s="23"/>
       <c r="O97" s="23"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" s="21"/>
       <c r="B98" s="2"/>
       <c r="C98" s="22"/>
@@ -4540,7 +4845,7 @@
       <c r="N98" s="23"/>
       <c r="O98" s="23"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" s="21"/>
       <c r="B99" s="2"/>
       <c r="C99" s="22"/>
@@ -4557,7 +4862,7 @@
       <c r="N99" s="23"/>
       <c r="O99" s="23"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" s="21"/>
       <c r="B100" s="2"/>
       <c r="C100" s="22"/>
@@ -4574,7 +4879,7 @@
       <c r="N100" s="23"/>
       <c r="O100" s="23"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" s="21"/>
       <c r="B101" s="2"/>
       <c r="C101" s="22"/>
@@ -4591,7 +4896,7 @@
       <c r="N101" s="23"/>
       <c r="O101" s="23"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" s="21"/>
       <c r="B102" s="2"/>
       <c r="C102" s="22"/>
@@ -4608,7 +4913,7 @@
       <c r="N102" s="23"/>
       <c r="O102" s="23"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" s="21"/>
       <c r="B103" s="2"/>
       <c r="C103" s="22"/>
@@ -4625,7 +4930,7 @@
       <c r="N103" s="23"/>
       <c r="O103" s="23"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" s="21"/>
       <c r="B104" s="2"/>
       <c r="C104" s="22"/>
@@ -4642,7 +4947,7 @@
       <c r="N104" s="23"/>
       <c r="O104" s="23"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" s="21"/>
       <c r="B105" s="2"/>
       <c r="C105" s="22"/>
@@ -4659,7 +4964,7 @@
       <c r="N105" s="23"/>
       <c r="O105" s="23"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" s="21"/>
       <c r="B106" s="2"/>
       <c r="C106" s="22"/>
@@ -4676,7 +4981,7 @@
       <c r="N106" s="23"/>
       <c r="O106" s="23"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107" s="21"/>
       <c r="B107" s="2"/>
       <c r="C107" s="22"/>
@@ -4693,7 +4998,7 @@
       <c r="N107" s="23"/>
       <c r="O107" s="23"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108" s="21"/>
       <c r="B108" s="2"/>
       <c r="C108" s="22"/>
@@ -4710,7 +5015,7 @@
       <c r="N108" s="23"/>
       <c r="O108" s="23"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109" s="21"/>
       <c r="B109" s="2"/>
       <c r="C109" s="22"/>
@@ -4727,7 +5032,7 @@
       <c r="N109" s="23"/>
       <c r="O109" s="23"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110" s="21"/>
       <c r="B110" s="2"/>
       <c r="C110" s="22"/>
@@ -4744,7 +5049,7 @@
       <c r="N110" s="23"/>
       <c r="O110" s="23"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111" s="21"/>
       <c r="B111" s="2"/>
       <c r="C111" s="22"/>
@@ -4761,7 +5066,7 @@
       <c r="N111" s="23"/>
       <c r="O111" s="23"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112" s="21"/>
       <c r="B112" s="2"/>
       <c r="C112" s="22"/>
@@ -4778,7 +5083,7 @@
       <c r="N112" s="23"/>
       <c r="O112" s="23"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113" s="21"/>
       <c r="B113" s="2"/>
       <c r="C113" s="22"/>
@@ -4795,7 +5100,7 @@
       <c r="N113" s="23"/>
       <c r="O113" s="23"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114" s="21"/>
       <c r="B114" s="2"/>
       <c r="C114" s="22"/>
@@ -4812,7 +5117,7 @@
       <c r="N114" s="23"/>
       <c r="O114" s="23"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115" s="21"/>
       <c r="B115" s="2"/>
       <c r="C115" s="22"/>
@@ -4829,7 +5134,7 @@
       <c r="N115" s="23"/>
       <c r="O115" s="23"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116" s="21"/>
       <c r="B116" s="2"/>
       <c r="C116" s="22"/>
@@ -4846,7 +5151,7 @@
       <c r="N116" s="23"/>
       <c r="O116" s="23"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117" s="21"/>
       <c r="B117" s="2"/>
       <c r="C117" s="22"/>
@@ -4863,7 +5168,7 @@
       <c r="N117" s="23"/>
       <c r="O117" s="23"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118" s="21"/>
       <c r="B118" s="2"/>
       <c r="C118" s="22"/>
@@ -4880,7 +5185,7 @@
       <c r="N118" s="23"/>
       <c r="O118" s="23"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119" s="21"/>
       <c r="B119" s="2"/>
       <c r="C119" s="22"/>
@@ -4897,7 +5202,7 @@
       <c r="N119" s="23"/>
       <c r="O119" s="23"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120" s="21"/>
       <c r="B120" s="2"/>
       <c r="C120" s="22"/>
@@ -4914,7 +5219,7 @@
       <c r="N120" s="23"/>
       <c r="O120" s="23"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121" s="21"/>
       <c r="B121" s="2"/>
       <c r="C121" s="22"/>
@@ -4931,7 +5236,7 @@
       <c r="N121" s="23"/>
       <c r="O121" s="23"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122" s="21"/>
       <c r="B122" s="2"/>
       <c r="C122" s="22"/>
@@ -4948,7 +5253,7 @@
       <c r="N122" s="23"/>
       <c r="O122" s="23"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123" s="21"/>
       <c r="B123" s="2"/>
       <c r="C123" s="22"/>
@@ -4965,7 +5270,7 @@
       <c r="N123" s="23"/>
       <c r="O123" s="23"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124" s="21"/>
       <c r="B124" s="2"/>
       <c r="C124" s="22"/>
@@ -4982,7 +5287,7 @@
       <c r="N124" s="23"/>
       <c r="O124" s="23"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A125" s="21"/>
       <c r="B125" s="2"/>
       <c r="C125" s="22"/>
@@ -4999,7 +5304,7 @@
       <c r="N125" s="23"/>
       <c r="O125" s="23"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A126" s="21"/>
       <c r="B126" s="2"/>
       <c r="C126" s="22"/>
@@ -5016,7 +5321,7 @@
       <c r="N126" s="23"/>
       <c r="O126" s="23"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A127" s="21"/>
       <c r="B127" s="2"/>
       <c r="C127" s="22"/>
@@ -5033,7 +5338,7 @@
       <c r="N127" s="23"/>
       <c r="O127" s="23"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128" s="21"/>
       <c r="B128" s="2"/>
       <c r="C128" s="22"/>
@@ -5050,7 +5355,7 @@
       <c r="N128" s="23"/>
       <c r="O128" s="23"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A129" s="21"/>
       <c r="B129" s="2"/>
       <c r="C129" s="22"/>
@@ -5067,7 +5372,7 @@
       <c r="N129" s="23"/>
       <c r="O129" s="23"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A130" s="21"/>
       <c r="B130" s="2"/>
       <c r="C130" s="22"/>
@@ -5084,7 +5389,7 @@
       <c r="N130" s="23"/>
       <c r="O130" s="23"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A131" s="21"/>
       <c r="B131" s="2"/>
       <c r="C131" s="22"/>
@@ -5101,7 +5406,7 @@
       <c r="N131" s="23"/>
       <c r="O131" s="23"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A132" s="21"/>
       <c r="B132" s="2"/>
       <c r="C132" s="22"/>
@@ -5118,7 +5423,7 @@
       <c r="N132" s="23"/>
       <c r="O132" s="23"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A133" s="21"/>
       <c r="B133" s="2"/>
       <c r="C133" s="22"/>
@@ -5135,7 +5440,7 @@
       <c r="N133" s="23"/>
       <c r="O133" s="23"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A134" s="21"/>
       <c r="B134" s="2"/>
       <c r="C134" s="22"/>
@@ -5152,7 +5457,7 @@
       <c r="N134" s="23"/>
       <c r="O134" s="23"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A135" s="21"/>
       <c r="B135" s="2"/>
       <c r="C135" s="22"/>
@@ -5169,7 +5474,7 @@
       <c r="N135" s="23"/>
       <c r="O135" s="23"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A136" s="21"/>
       <c r="B136" s="2"/>
       <c r="C136" s="22"/>
@@ -5186,7 +5491,7 @@
       <c r="N136" s="23"/>
       <c r="O136" s="23"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A137" s="21"/>
       <c r="B137" s="2"/>
       <c r="C137" s="22"/>
@@ -5203,7 +5508,7 @@
       <c r="N137" s="23"/>
       <c r="O137" s="23"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A138" s="21"/>
       <c r="B138" s="2"/>
       <c r="C138" s="22"/>
@@ -5220,7 +5525,7 @@
       <c r="N138" s="23"/>
       <c r="O138" s="23"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A139" s="21"/>
       <c r="B139" s="2"/>
       <c r="C139" s="22"/>
@@ -5237,7 +5542,7 @@
       <c r="N139" s="23"/>
       <c r="O139" s="23"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A140" s="21"/>
       <c r="B140" s="2"/>
       <c r="C140" s="22"/>
@@ -5254,7 +5559,7 @@
       <c r="N140" s="23"/>
       <c r="O140" s="23"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A141" s="21"/>
       <c r="B141" s="2"/>
       <c r="C141" s="22"/>
@@ -5271,7 +5576,7 @@
       <c r="N141" s="23"/>
       <c r="O141" s="23"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A142" s="21"/>
       <c r="B142" s="2"/>
       <c r="C142" s="22"/>
@@ -5288,7 +5593,7 @@
       <c r="N142" s="23"/>
       <c r="O142" s="23"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A143" s="21"/>
       <c r="B143" s="2"/>
       <c r="C143" s="22"/>
@@ -5305,7 +5610,7 @@
       <c r="N143" s="23"/>
       <c r="O143" s="23"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A144" s="21"/>
       <c r="B144" s="2"/>
       <c r="C144" s="22"/>
@@ -5322,7 +5627,7 @@
       <c r="N144" s="23"/>
       <c r="O144" s="23"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145" s="21"/>
       <c r="B145" s="2"/>
       <c r="C145" s="22"/>
@@ -5339,7 +5644,7 @@
       <c r="N145" s="23"/>
       <c r="O145" s="23"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146" s="21"/>
       <c r="B146" s="2"/>
       <c r="C146" s="22"/>
@@ -5356,7 +5661,7 @@
       <c r="N146" s="23"/>
       <c r="O146" s="23"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147" s="21"/>
       <c r="B147" s="2"/>
       <c r="C147" s="22"/>
@@ -5373,7 +5678,7 @@
       <c r="N147" s="23"/>
       <c r="O147" s="23"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148" s="21"/>
       <c r="B148" s="2"/>
       <c r="C148" s="22"/>
@@ -5390,7 +5695,7 @@
       <c r="N148" s="23"/>
       <c r="O148" s="23"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149" s="21"/>
       <c r="B149" s="2"/>
       <c r="C149" s="22"/>
@@ -5407,7 +5712,7 @@
       <c r="N149" s="23"/>
       <c r="O149" s="23"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150" s="21"/>
       <c r="B150" s="2"/>
       <c r="C150" s="22"/>
@@ -5424,7 +5729,7 @@
       <c r="N150" s="23"/>
       <c r="O150" s="23"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151" s="21"/>
       <c r="B151" s="2"/>
       <c r="C151" s="22"/>
@@ -5441,7 +5746,7 @@
       <c r="N151" s="23"/>
       <c r="O151" s="23"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152" s="21"/>
       <c r="B152" s="2"/>
       <c r="C152" s="22"/>
@@ -5458,7 +5763,7 @@
       <c r="N152" s="23"/>
       <c r="O152" s="23"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153" s="21"/>
       <c r="B153" s="2"/>
       <c r="C153" s="22"/>
@@ -5475,7 +5780,7 @@
       <c r="N153" s="23"/>
       <c r="O153" s="23"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A154" s="21"/>
       <c r="B154" s="2"/>
       <c r="C154" s="22"/>
@@ -5492,7 +5797,7 @@
       <c r="N154" s="23"/>
       <c r="O154" s="23"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155" s="21"/>
       <c r="B155" s="2"/>
       <c r="C155" s="22"/>
@@ -5509,7 +5814,7 @@
       <c r="N155" s="23"/>
       <c r="O155" s="23"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156" s="21"/>
       <c r="B156" s="2"/>
       <c r="C156" s="22"/>
@@ -5526,7 +5831,7 @@
       <c r="N156" s="23"/>
       <c r="O156" s="23"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A157" s="21"/>
       <c r="B157" s="2"/>
       <c r="C157" s="22"/>
@@ -5543,7 +5848,7 @@
       <c r="N157" s="23"/>
       <c r="O157" s="23"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158" s="21"/>
       <c r="B158" s="2"/>
       <c r="C158" s="22"/>
@@ -5560,7 +5865,7 @@
       <c r="N158" s="23"/>
       <c r="O158" s="23"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159" s="21"/>
       <c r="B159" s="2"/>
       <c r="C159" s="22"/>
@@ -5577,7 +5882,7 @@
       <c r="N159" s="23"/>
       <c r="O159" s="23"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160" s="21"/>
       <c r="B160" s="2"/>
       <c r="C160" s="22"/>
@@ -5594,7 +5899,7 @@
       <c r="N160" s="23"/>
       <c r="O160" s="23"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A161" s="21"/>
       <c r="B161" s="2"/>
       <c r="C161" s="22"/>
@@ -5611,7 +5916,7 @@
       <c r="N161" s="23"/>
       <c r="O161" s="23"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A162" s="21"/>
       <c r="B162" s="2"/>
       <c r="C162" s="22"/>
@@ -5628,7 +5933,7 @@
       <c r="N162" s="23"/>
       <c r="O162" s="23"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163" s="21"/>
       <c r="B163" s="2"/>
       <c r="C163" s="22"/>
@@ -5645,7 +5950,7 @@
       <c r="N163" s="23"/>
       <c r="O163" s="23"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A164" s="21"/>
       <c r="B164" s="2"/>
       <c r="C164" s="22"/>
@@ -5662,7 +5967,7 @@
       <c r="N164" s="23"/>
       <c r="O164" s="23"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A165" s="21"/>
       <c r="B165" s="2"/>
       <c r="C165" s="22"/>
@@ -5679,7 +5984,7 @@
       <c r="N165" s="23"/>
       <c r="O165" s="23"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A166" s="21"/>
       <c r="B166" s="2"/>
       <c r="C166" s="22"/>
@@ -5696,7 +6001,7 @@
       <c r="N166" s="23"/>
       <c r="O166" s="23"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A167" s="21"/>
       <c r="B167" s="2"/>
       <c r="C167" s="22"/>
@@ -5713,7 +6018,7 @@
       <c r="N167" s="23"/>
       <c r="O167" s="23"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A168" s="21"/>
       <c r="B168" s="2"/>
       <c r="C168" s="22"/>
@@ -5730,7 +6035,7 @@
       <c r="N168" s="23"/>
       <c r="O168" s="23"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A169" s="21"/>
       <c r="B169" s="2"/>
       <c r="C169" s="22"/>
@@ -5747,7 +6052,7 @@
       <c r="N169" s="23"/>
       <c r="O169" s="23"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A170" s="21"/>
       <c r="B170" s="2"/>
       <c r="C170" s="22"/>
@@ -5764,7 +6069,7 @@
       <c r="N170" s="23"/>
       <c r="O170" s="23"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A171" s="21"/>
       <c r="B171" s="2"/>
       <c r="C171" s="22"/>
@@ -5781,7 +6086,7 @@
       <c r="N171" s="23"/>
       <c r="O171" s="23"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172" s="21"/>
       <c r="B172" s="2"/>
       <c r="C172" s="22"/>
@@ -5798,7 +6103,7 @@
       <c r="N172" s="23"/>
       <c r="O172" s="23"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A173" s="21"/>
       <c r="B173" s="2"/>
       <c r="C173" s="22"/>
@@ -5815,7 +6120,7 @@
       <c r="N173" s="23"/>
       <c r="O173" s="23"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A174" s="21"/>
       <c r="B174" s="2"/>
       <c r="C174" s="22"/>
@@ -5832,7 +6137,7 @@
       <c r="N174" s="23"/>
       <c r="O174" s="23"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A175" s="21"/>
       <c r="B175" s="2"/>
       <c r="C175" s="22"/>
@@ -5849,7 +6154,7 @@
       <c r="N175" s="23"/>
       <c r="O175" s="23"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176" s="21"/>
       <c r="B176" s="2"/>
       <c r="C176" s="22"/>
@@ -5866,7 +6171,7 @@
       <c r="N176" s="23"/>
       <c r="O176" s="23"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A177" s="21"/>
       <c r="B177" s="2"/>
       <c r="C177" s="22"/>
@@ -5883,7 +6188,7 @@
       <c r="N177" s="23"/>
       <c r="O177" s="23"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A178" s="21"/>
       <c r="B178" s="2"/>
       <c r="C178" s="22"/>
@@ -5900,7 +6205,7 @@
       <c r="N178" s="23"/>
       <c r="O178" s="23"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A179" s="21"/>
       <c r="B179" s="2"/>
       <c r="C179" s="22"/>
@@ -5917,7 +6222,7 @@
       <c r="N179" s="23"/>
       <c r="O179" s="23"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A180" s="21"/>
       <c r="B180" s="2"/>
       <c r="C180" s="22"/>
@@ -5934,7 +6239,7 @@
       <c r="N180" s="23"/>
       <c r="O180" s="23"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A181" s="21"/>
       <c r="B181" s="2"/>
       <c r="C181" s="22"/>
@@ -5951,7 +6256,7 @@
       <c r="N181" s="23"/>
       <c r="O181" s="23"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A182" s="21"/>
       <c r="B182" s="2"/>
       <c r="C182" s="22"/>
@@ -5968,7 +6273,7 @@
       <c r="N182" s="23"/>
       <c r="O182" s="23"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A183" s="21"/>
       <c r="B183" s="2"/>
       <c r="C183" s="22"/>
@@ -5985,7 +6290,7 @@
       <c r="N183" s="23"/>
       <c r="O183" s="23"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A184" s="21"/>
       <c r="B184" s="2"/>
       <c r="C184" s="22"/>
@@ -6002,7 +6307,7 @@
       <c r="N184" s="23"/>
       <c r="O184" s="23"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A185" s="21"/>
       <c r="B185" s="2"/>
       <c r="C185" s="22"/>
@@ -6019,7 +6324,7 @@
       <c r="N185" s="23"/>
       <c r="O185" s="23"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A186" s="21"/>
       <c r="B186" s="2"/>
       <c r="C186" s="22"/>
@@ -6036,7 +6341,7 @@
       <c r="N186" s="23"/>
       <c r="O186" s="23"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A187" s="21"/>
       <c r="B187" s="2"/>
       <c r="C187" s="22"/>
@@ -6053,7 +6358,7 @@
       <c r="N187" s="23"/>
       <c r="O187" s="23"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A188" s="21"/>
       <c r="B188" s="2"/>
       <c r="C188" s="22"/>
@@ -6070,7 +6375,7 @@
       <c r="N188" s="23"/>
       <c r="O188" s="23"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A189" s="21"/>
       <c r="B189" s="2"/>
       <c r="C189" s="22"/>
@@ -6087,7 +6392,7 @@
       <c r="N189" s="23"/>
       <c r="O189" s="23"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A190" s="21"/>
       <c r="B190" s="2"/>
       <c r="C190" s="22"/>
@@ -6104,7 +6409,7 @@
       <c r="N190" s="23"/>
       <c r="O190" s="23"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A191" s="21"/>
       <c r="B191" s="2"/>
       <c r="C191" s="22"/>
@@ -6121,7 +6426,7 @@
       <c r="N191" s="23"/>
       <c r="O191" s="23"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A192" s="21"/>
       <c r="B192" s="2"/>
       <c r="C192" s="22"/>
@@ -6138,7 +6443,7 @@
       <c r="N192" s="23"/>
       <c r="O192" s="23"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A193" s="21"/>
       <c r="B193" s="2"/>
       <c r="C193" s="22"/>
@@ -6155,7 +6460,7 @@
       <c r="N193" s="23"/>
       <c r="O193" s="23"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A194" s="21"/>
       <c r="B194" s="2"/>
       <c r="C194" s="22"/>
@@ -6172,7 +6477,7 @@
       <c r="N194" s="23"/>
       <c r="O194" s="23"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A195" s="21"/>
       <c r="B195" s="2"/>
       <c r="C195" s="22"/>
@@ -6189,7 +6494,7 @@
       <c r="N195" s="23"/>
       <c r="O195" s="23"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A196" s="21"/>
       <c r="B196" s="2"/>
       <c r="C196" s="22"/>
@@ -6206,7 +6511,7 @@
       <c r="N196" s="23"/>
       <c r="O196" s="23"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A197" s="21"/>
       <c r="B197" s="2"/>
       <c r="C197" s="22"/>
@@ -6223,7 +6528,7 @@
       <c r="N197" s="23"/>
       <c r="O197" s="23"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A198" s="21"/>
       <c r="B198" s="2"/>
       <c r="C198" s="22"/>
@@ -6240,7 +6545,7 @@
       <c r="N198" s="23"/>
       <c r="O198" s="23"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A199" s="21"/>
       <c r="B199" s="2"/>
       <c r="C199" s="22"/>
@@ -6257,90 +6562,109 @@
       <c r="N199" s="23"/>
       <c r="O199" s="23"/>
     </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A200" s="21"/>
+      <c r="B200" s="2"/>
+      <c r="C200" s="22"/>
+      <c r="D200" s="2"/>
+      <c r="E200" s="2"/>
+      <c r="F200" s="2"/>
+      <c r="G200" s="2"/>
+      <c r="H200" s="2"/>
+      <c r="I200" s="2"/>
+      <c r="J200" s="2"/>
+      <c r="K200" s="23"/>
+      <c r="L200" s="24"/>
+      <c r="M200" s="23"/>
+      <c r="N200" s="23"/>
+      <c r="O200" s="23"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1"/>
-    <hyperlink ref="L2" r:id="rId2"/>
-    <hyperlink ref="K3" r:id="rId3"/>
-    <hyperlink ref="L3" r:id="rId4"/>
-    <hyperlink ref="K4" r:id="rId5"/>
-    <hyperlink ref="L4" r:id="rId6"/>
-    <hyperlink ref="K5" r:id="rId7"/>
-    <hyperlink ref="L5" r:id="rId8"/>
-    <hyperlink ref="K6" r:id="rId9"/>
-    <hyperlink ref="L6" r:id="rId10"/>
-    <hyperlink ref="K7" r:id="rId11"/>
-    <hyperlink ref="L7" r:id="rId12"/>
-    <hyperlink ref="K8" r:id="rId13"/>
-    <hyperlink ref="L8" r:id="rId14"/>
-    <hyperlink ref="K9" r:id="rId15"/>
-    <hyperlink ref="L9" r:id="rId16"/>
-    <hyperlink ref="K10" r:id="rId17"/>
-    <hyperlink ref="L10" r:id="rId18"/>
-    <hyperlink ref="K11" r:id="rId19"/>
-    <hyperlink ref="L11" r:id="rId20"/>
-    <hyperlink ref="K12" r:id="rId21"/>
-    <hyperlink ref="L12" r:id="rId22"/>
-    <hyperlink ref="K13" r:id="rId23"/>
-    <hyperlink ref="L13" r:id="rId24"/>
-    <hyperlink ref="K14" r:id="rId25"/>
-    <hyperlink ref="L14" r:id="rId26"/>
-    <hyperlink ref="K15" r:id="rId27"/>
-    <hyperlink ref="L15" r:id="rId28"/>
-    <hyperlink ref="K16" r:id="rId29"/>
-    <hyperlink ref="L16" r:id="rId30"/>
-    <hyperlink ref="K17" r:id="rId31"/>
-    <hyperlink ref="L17" r:id="rId32"/>
-    <hyperlink ref="K18" r:id="rId33"/>
-    <hyperlink ref="L18" r:id="rId34"/>
-    <hyperlink ref="K19" r:id="rId35"/>
-    <hyperlink ref="L19" r:id="rId36"/>
-    <hyperlink ref="K20" r:id="rId37"/>
-    <hyperlink ref="L20" r:id="rId38"/>
-    <hyperlink ref="K21" r:id="rId39"/>
-    <hyperlink ref="L21" r:id="rId40"/>
-    <hyperlink ref="K22" r:id="rId41"/>
-    <hyperlink ref="L22" r:id="rId42"/>
-    <hyperlink ref="K23" r:id="rId43"/>
-    <hyperlink ref="L23" r:id="rId44"/>
-    <hyperlink ref="K24" r:id="rId45"/>
-    <hyperlink ref="L24" r:id="rId46"/>
-    <hyperlink ref="K25" r:id="rId47"/>
-    <hyperlink ref="L25" r:id="rId48"/>
-    <hyperlink ref="K26" r:id="rId49"/>
-    <hyperlink ref="L26" r:id="rId50"/>
-    <hyperlink ref="K27" r:id="rId51"/>
-    <hyperlink ref="L27" r:id="rId52"/>
-    <hyperlink ref="K28" r:id="rId53"/>
-    <hyperlink ref="L28" r:id="rId54"/>
-    <hyperlink ref="K29" r:id="rId55"/>
-    <hyperlink ref="L29" r:id="rId56"/>
-    <hyperlink ref="K30" r:id="rId57"/>
-    <hyperlink ref="L30" r:id="rId58"/>
-    <hyperlink ref="K31" r:id="rId59"/>
-    <hyperlink ref="L31" r:id="rId60"/>
-    <hyperlink ref="L32" r:id="rId61"/>
-    <hyperlink ref="K33" r:id="rId62"/>
-    <hyperlink ref="L33" r:id="rId63"/>
-    <hyperlink ref="K34" r:id="rId64"/>
-    <hyperlink ref="L34" r:id="rId65"/>
-    <hyperlink ref="K35" r:id="rId66"/>
-    <hyperlink ref="L35" r:id="rId67"/>
-    <hyperlink ref="K36" r:id="rId68"/>
-    <hyperlink ref="L36" r:id="rId69"/>
-    <hyperlink ref="K37" r:id="rId70"/>
-    <hyperlink ref="L37" r:id="rId71"/>
-    <hyperlink ref="K38" r:id="rId72"/>
-    <hyperlink ref="L38" r:id="rId73"/>
-    <hyperlink ref="K39" r:id="rId74"/>
-    <hyperlink ref="L39" r:id="rId75"/>
-    <hyperlink ref="K40" r:id="rId76"/>
-    <hyperlink ref="L40" r:id="rId77"/>
-    <hyperlink ref="K41" r:id="rId78"/>
-    <hyperlink ref="L41" r:id="rId79"/>
-    <hyperlink ref="K42" r:id="rId80"/>
-    <hyperlink ref="L42" r:id="rId81"/>
+    <hyperlink ref="K3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="L3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="K4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="L4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="K5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="L5" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="K6" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="L6" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="K7" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="L7" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="K8" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="L8" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="K9" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="L9" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="K10" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="L10" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="K11" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="L11" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="K12" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="L12" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="K13" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="L13" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="K14" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="L14" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="K15" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="L15" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="K16" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="L16" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="K17" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="L17" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="K18" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="L18" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="K19" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="L19" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="K20" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="L20" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="K21" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="L21" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="K22" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="L22" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="K23" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="L23" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="K24" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="L24" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="K25" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="L25" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="K26" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="L26" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="K27" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="L27" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="K28" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="L28" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="K29" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="L29" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="K30" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="L30" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="K31" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="L31" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="K32" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="L32" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="L33" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="K34" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="L34" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="K35" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="L35" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="K36" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="L36" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="K37" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="L37" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="K38" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="L38" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="K39" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="L39" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="K40" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="L40" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="K41" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="L41" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="K42" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="L42" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="K43" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="L43" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId82"/>
 </worksheet>
 </file>